--- a/data/134/DEUSTATIS/old/Foreign trade - countries.xlsx
+++ b/data/134/DEUSTATIS/old/Foreign trade - countries.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="48">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 countries</t>
@@ -157,7 +157,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:14:13</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:10:11</t>
   </si>
 </sst>
 </file>
@@ -8484,10 +8484,10 @@
         <v>11</v>
       </c>
       <c r="D507" t="n" s="10">
-        <v>834812.0</v>
+        <v>833538.0</v>
       </c>
       <c r="E507" t="n" s="10">
-        <v>99013.0</v>
+        <v>98609.0</v>
       </c>
     </row>
     <row r="508">
@@ -8498,10 +8498,10 @@
         <v>11</v>
       </c>
       <c r="D508" t="n" s="10">
-        <v>551243.0</v>
+        <v>554547.0</v>
       </c>
       <c r="E508" t="n" s="10">
-        <v>43986.0</v>
+        <v>44180.0</v>
       </c>
     </row>
     <row r="509">
@@ -8515,10 +8515,10 @@
         <v>11</v>
       </c>
       <c r="D509" t="n" s="10">
-        <v>1112754.0</v>
+        <v>1112098.0</v>
       </c>
       <c r="E509" t="n" s="10">
-        <v>89925.0</v>
+        <v>89848.0</v>
       </c>
     </row>
     <row r="510">
@@ -8529,10 +8529,10 @@
         <v>11</v>
       </c>
       <c r="D510" t="n" s="10">
-        <v>454559.0</v>
+        <v>455459.0</v>
       </c>
       <c r="E510" t="n" s="10">
-        <v>32907.0</v>
+        <v>32952.0</v>
       </c>
     </row>
     <row r="511">
@@ -8546,10 +8546,10 @@
         <v>11</v>
       </c>
       <c r="D511" t="n" s="10">
-        <v>925155.0</v>
+        <v>924980.0</v>
       </c>
       <c r="E511" t="n" s="10">
-        <v>93899.0</v>
+        <v>93892.0</v>
       </c>
     </row>
     <row r="512">
@@ -8560,10 +8560,10 @@
         <v>11</v>
       </c>
       <c r="D512" t="n" s="10">
-        <v>522552.0</v>
+        <v>523318.0</v>
       </c>
       <c r="E512" t="n" s="10">
-        <v>55359.0</v>
+        <v>55527.0</v>
       </c>
     </row>
     <row r="513">
@@ -8577,10 +8577,10 @@
         <v>11</v>
       </c>
       <c r="D513" t="n" s="10">
-        <v>594088.0</v>
+        <v>594333.0</v>
       </c>
       <c r="E513" t="n" s="10">
-        <v>66452.0</v>
+        <v>66393.0</v>
       </c>
     </row>
     <row r="514">
@@ -8591,10 +8591,10 @@
         <v>11</v>
       </c>
       <c r="D514" t="n" s="10">
-        <v>360575.0</v>
+        <v>356922.0</v>
       </c>
       <c r="E514" t="n" s="10">
-        <v>68184.0</v>
+        <v>68164.0</v>
       </c>
     </row>
     <row r="515">
@@ -8608,10 +8608,10 @@
         <v>11</v>
       </c>
       <c r="D515" t="n" s="10">
-        <v>540140.0</v>
+        <v>539676.0</v>
       </c>
       <c r="E515" t="n" s="10">
-        <v>79616.0</v>
+        <v>79542.0</v>
       </c>
     </row>
     <row r="516">
@@ -8622,10 +8622,10 @@
         <v>11</v>
       </c>
       <c r="D516" t="n" s="10">
-        <v>328622.0</v>
+        <v>330374.0</v>
       </c>
       <c r="E516" t="n" s="10">
-        <v>66664.0</v>
+        <v>66696.0</v>
       </c>
     </row>
     <row r="517">
@@ -8639,10 +8639,10 @@
         <v>11</v>
       </c>
       <c r="D517" t="n" s="10">
-        <v>788191.0</v>
+        <v>785618.0</v>
       </c>
       <c r="E517" t="n" s="10">
-        <v>95652.0</v>
+        <v>95715.0</v>
       </c>
     </row>
     <row r="518">
@@ -8653,10 +8653,10 @@
         <v>11</v>
       </c>
       <c r="D518" t="n" s="10">
-        <v>394869.0</v>
+        <v>402829.0</v>
       </c>
       <c r="E518" t="n" s="10">
-        <v>64819.0</v>
+        <v>64830.0</v>
       </c>
     </row>
     <row r="519">
@@ -8670,10 +8670,10 @@
         <v>11</v>
       </c>
       <c r="D519" t="n" s="10">
-        <v>857617.0</v>
+        <v>857200.0</v>
       </c>
       <c r="E519" t="n" s="10">
-        <v>144149.0</v>
+        <v>144038.0</v>
       </c>
     </row>
     <row r="520">
@@ -8684,10 +8684,10 @@
         <v>11</v>
       </c>
       <c r="D520" t="n" s="10">
-        <v>449076.0</v>
+        <v>449301.0</v>
       </c>
       <c r="E520" t="n" s="10">
-        <v>75255.0</v>
+        <v>75116.0</v>
       </c>
     </row>
     <row r="521">
@@ -8701,10 +8701,10 @@
         <v>11</v>
       </c>
       <c r="D521" t="n" s="10">
-        <v>700447.0</v>
+        <v>700397.0</v>
       </c>
       <c r="E521" t="n" s="10">
-        <v>90522.0</v>
+        <v>90511.0</v>
       </c>
     </row>
     <row r="522">
@@ -8715,10 +8715,10 @@
         <v>11</v>
       </c>
       <c r="D522" t="n" s="10">
-        <v>399426.0</v>
+        <v>403175.0</v>
       </c>
       <c r="E522" t="n" s="10">
-        <v>57635.0</v>
+        <v>57669.0</v>
       </c>
     </row>
     <row r="523">
@@ -8732,10 +8732,10 @@
         <v>11</v>
       </c>
       <c r="D523" t="n" s="10">
-        <v>798122.0</v>
+        <v>797744.0</v>
       </c>
       <c r="E523" t="n" s="10">
-        <v>108887.0</v>
+        <v>108882.0</v>
       </c>
     </row>
     <row r="524">
@@ -8746,10 +8746,10 @@
         <v>11</v>
       </c>
       <c r="D524" t="n" s="10">
-        <v>421965.0</v>
+        <v>422530.0</v>
       </c>
       <c r="E524" t="n" s="10">
-        <v>76531.0</v>
+        <v>76537.0</v>
       </c>
     </row>
     <row r="525">
@@ -8763,10 +8763,10 @@
         <v>11</v>
       </c>
       <c r="D525" t="n" s="10">
-        <v>767757.0</v>
+        <v>771817.0</v>
       </c>
       <c r="E525" t="n" s="10">
-        <v>101209.0</v>
+        <v>101307.0</v>
       </c>
     </row>
     <row r="526">
@@ -8777,10 +8777,10 @@
         <v>11</v>
       </c>
       <c r="D526" t="n" s="10">
-        <v>647393.0</v>
+        <v>648164.0</v>
       </c>
       <c r="E526" t="n" s="10">
-        <v>59143.0</v>
+        <v>59148.0</v>
       </c>
     </row>
     <row r="527">
@@ -8794,10 +8794,10 @@
         <v>11</v>
       </c>
       <c r="D527" t="n" s="10">
-        <v>749978.0</v>
+        <v>749907.0</v>
       </c>
       <c r="E527" t="n" s="10">
-        <v>104191.0</v>
+        <v>104864.0</v>
       </c>
     </row>
     <row r="528">
@@ -8808,10 +8808,10 @@
         <v>11</v>
       </c>
       <c r="D528" t="n" s="10">
-        <v>487806.0</v>
+        <v>488580.0</v>
       </c>
       <c r="E528" t="n" s="10">
-        <v>62901.0</v>
+        <v>62902.0</v>
       </c>
     </row>
     <row r="529">
@@ -8825,10 +8825,10 @@
         <v>11</v>
       </c>
       <c r="D529" t="n" s="10">
-        <v>666118.0</v>
+        <v>666107.0</v>
       </c>
       <c r="E529" t="n" s="10">
-        <v>119695.0</v>
+        <v>119646.0</v>
       </c>
     </row>
     <row r="530">
@@ -8839,10 +8839,10 @@
         <v>11</v>
       </c>
       <c r="D530" t="n" s="10">
-        <v>491102.0</v>
+        <v>494437.0</v>
       </c>
       <c r="E530" t="n" s="10">
-        <v>49786.0</v>
+        <v>49789.0</v>
       </c>
     </row>
     <row r="531" ht="50.6" customHeight="true">
@@ -8875,10 +8875,10 @@
         <v>11</v>
       </c>
       <c r="D533" t="n" s="10">
-        <v>544167.0</v>
+        <v>544375.0</v>
       </c>
       <c r="E533" t="n" s="10">
-        <v>37012.0</v>
+        <v>37021.0</v>
       </c>
     </row>
     <row r="534">
@@ -8906,10 +8906,10 @@
         <v>11</v>
       </c>
       <c r="D535" t="n" s="10">
-        <v>403693.0</v>
+        <v>404186.0</v>
       </c>
       <c r="E535" t="n" s="10">
-        <v>31675.0</v>
+        <v>31149.0</v>
       </c>
     </row>
     <row r="536">
@@ -8937,10 +8937,10 @@
         <v>11</v>
       </c>
       <c r="D537" t="n" s="10">
-        <v>570418.0</v>
+        <v>572479.0</v>
       </c>
       <c r="E537" t="n" s="10">
-        <v>52463.0</v>
+        <v>54285.0</v>
       </c>
     </row>
     <row r="538">
@@ -8968,10 +8968,10 @@
         <v>11</v>
       </c>
       <c r="D539" t="n" s="10">
-        <v>427548.0</v>
+        <v>428831.0</v>
       </c>
       <c r="E539" t="n" s="10">
-        <v>50108.0</v>
+        <v>51513.0</v>
       </c>
     </row>
     <row r="540">
@@ -8985,10 +8985,10 @@
         <v>11</v>
       </c>
       <c r="D540" t="n" s="10">
-        <v>743132.0</v>
+        <v>743530.0</v>
       </c>
       <c r="E540" t="n" s="10">
-        <v>127933.0</v>
+        <v>128113.0</v>
       </c>
     </row>
     <row r="541">
@@ -8999,10 +8999,10 @@
         <v>11</v>
       </c>
       <c r="D541" t="n" s="10">
-        <v>384684.0</v>
+        <v>385501.0</v>
       </c>
       <c r="E541" t="n" s="10">
-        <v>53887.0</v>
+        <v>55188.0</v>
       </c>
     </row>
     <row r="542">
@@ -9016,10 +9016,10 @@
         <v>11</v>
       </c>
       <c r="D542" t="n" s="10">
-        <v>1017485.0</v>
+        <v>1017076.0</v>
       </c>
       <c r="E542" t="n" s="10">
-        <v>142052.0</v>
+        <v>142216.0</v>
       </c>
     </row>
     <row r="543">
@@ -9030,10 +9030,10 @@
         <v>11</v>
       </c>
       <c r="D543" t="n" s="10">
-        <v>596144.0</v>
+        <v>599813.0</v>
       </c>
       <c r="E543" t="n" s="10">
-        <v>71089.0</v>
+        <v>72996.0</v>
       </c>
     </row>
     <row r="544">
@@ -9047,10 +9047,10 @@
         <v>11</v>
       </c>
       <c r="D544" t="n" s="10">
-        <v>870382.0</v>
+        <v>872231.0</v>
       </c>
       <c r="E544" t="n" s="10">
-        <v>149927.0</v>
+        <v>149659.0</v>
       </c>
     </row>
     <row r="545">
@@ -9061,10 +9061,10 @@
         <v>11</v>
       </c>
       <c r="D545" t="n" s="10">
-        <v>499969.0</v>
+        <v>493210.0</v>
       </c>
       <c r="E545" t="n" s="10">
-        <v>69167.0</v>
+        <v>69800.0</v>
       </c>
     </row>
     <row r="546">
@@ -9077,11 +9077,11 @@
       <c r="C546" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D546" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E546" t="s" s="10">
-        <v>45</v>
+      <c r="D546" t="n" s="10">
+        <v>714593.0</v>
+      </c>
+      <c r="E546" t="n" s="10">
+        <v>105658.0</v>
       </c>
     </row>
     <row r="547">
@@ -9091,11 +9091,11 @@
       <c r="C547" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D547" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E547" t="s" s="10">
-        <v>45</v>
+      <c r="D547" t="n" s="10">
+        <v>620385.0</v>
+      </c>
+      <c r="E547" t="n" s="10">
+        <v>64160.0</v>
       </c>
     </row>
     <row r="548">
@@ -9108,11 +9108,11 @@
       <c r="C548" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D548" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E548" t="s" s="10">
-        <v>45</v>
+      <c r="D548" t="n" s="10">
+        <v>784077.0</v>
+      </c>
+      <c r="E548" t="n" s="10">
+        <v>157417.0</v>
       </c>
     </row>
     <row r="549">
@@ -9122,11 +9122,11 @@
       <c r="C549" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D549" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E549" t="s" s="10">
-        <v>45</v>
+      <c r="D549" t="n" s="10">
+        <v>529579.0</v>
+      </c>
+      <c r="E549" t="n" s="10">
+        <v>63313.0</v>
       </c>
     </row>
     <row r="550">
@@ -9139,11 +9139,11 @@
       <c r="C550" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D550" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E550" t="s" s="10">
-        <v>45</v>
+      <c r="D550" t="n" s="10">
+        <v>914877.0</v>
+      </c>
+      <c r="E550" t="n" s="10">
+        <v>136086.0</v>
       </c>
     </row>
     <row r="551">
@@ -9153,11 +9153,11 @@
       <c r="C551" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D551" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E551" t="s" s="10">
-        <v>45</v>
+      <c r="D551" t="n" s="10">
+        <v>474281.0</v>
+      </c>
+      <c r="E551" t="n" s="10">
+        <v>51701.0</v>
       </c>
     </row>
     <row r="552">
@@ -9265,7 +9265,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:14:21&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:10:18&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>